--- a/docs/ER_diagram.xlsx
+++ b/docs/ER_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\##BSS\250115_気象データツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5191DCB1-AA83-4D61-9A60-B16F7080E4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD7EDF-35F1-42D9-A35F-34042034EE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21010" yWindow="-2020" windowWidth="19190" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21010" yWindow="-8000" windowWidth="19190" windowHeight="18540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ER図" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>気象データツールにより、データを読み込み、統計値を算出。</t>
     <rPh sb="0" eb="2">
@@ -64,6 +64,19 @@
   </si>
   <si>
     <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフを作成し、画像ファイルに出力</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -656,6 +669,117 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
             <a:t>（ツールにより算出）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>351044</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>242957</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCE1A04-9DB9-B400-F0D6-DBEB97B78E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5143914" y="662609"/>
+          <a:ext cx="576608" cy="8696"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>325232</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37964</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1736373" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65C7D78-47CA-4F0A-A77D-812D91B69FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5802797" y="523877"/>
+          <a:ext cx="1736373" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>グラフ作成により可視化</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -930,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -947,9 +1071,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFA9907-79AB-48AF-A73F-746207F87C35}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -968,6 +1094,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
